--- a/solver/excel/extract/3/pred.xlsx
+++ b/solver/excel/extract/3/pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\mathematical_modeling\CUMCM2022\solver\excel\extract\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADE7D80-86E1-4D4A-A018-EEDF4A5616E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF72AAA5-BFC3-45BF-BFE1-CA3E58B12A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>表面风化</t>
+    <t>量化风化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -545,14 +545,15 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -560,50 +561,50 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>25</v>
@@ -616,50 +617,50 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="1">
+        <v>78.45</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.8650007725216727E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.40940232765409668</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.0263950248727201E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.6171261786956413E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.5512452584984789E-2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Q2" s="9">
         <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>78.45</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.8650007725216727E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.40940232765409668</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.08</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7.23</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2.0263950248727201E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3.6171261786956413E-2</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1.5512452584984789E-2</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.51</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>24</v>
@@ -672,50 +673,50 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="1">
+        <v>37.75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.2002458731703902E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.51589367106824446</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.9196222629691707E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.34614348677526779</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.29270728095242132</v>
+      </c>
+      <c r="K3" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.55726044238629391</v>
+      </c>
+      <c r="M3" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.702041199785832E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.6618091303457351E-2</v>
+      </c>
+      <c r="P3" s="11">
+        <v>8.3157934155061022E-2</v>
+      </c>
+      <c r="Q3" s="9">
         <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>37.75</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.2002458731703902E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.51589367106824446</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7.63</v>
-      </c>
-      <c r="H3" s="1">
-        <v>8.9196222629691707E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.34614348677526779</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.29270728095242132</v>
-      </c>
-      <c r="L3" s="1">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.55726044238629391</v>
-      </c>
-      <c r="N3" s="1">
-        <v>14.27</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3.702041199785832E-2</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1.6618091303457351E-2</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>8.3157934155061022E-2</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>22</v>
@@ -728,50 +729,50 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="1">
+        <v>31.95</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.37358758241279671</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="K4" s="1">
+        <v>39.58</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.21299402240989301</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.43341839517730651</v>
+      </c>
+      <c r="Q4" s="9">
         <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>31.95</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.37358758241279671</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.36</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.19</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.93</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7.06</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="L4" s="1">
-        <v>39.58</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.21299402240989301</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0.43341839517730651</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>24</v>
@@ -784,50 +785,50 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="1">
+        <v>35.47</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.264156007659768</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24.28</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="M5" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.14554908207268341</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.59029491026754788</v>
+      </c>
+      <c r="Q5" s="9">
         <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>35.47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.264156007659768</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7.07</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6.45</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="L5" s="1">
-        <v>24.28</v>
-      </c>
-      <c r="M5" s="1">
-        <v>8.31</v>
-      </c>
-      <c r="N5" s="1">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.14554908207268341</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.59029491026754788</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>24</v>
@@ -840,50 +841,50 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="1">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.37999999999999551</v>
+      </c>
+      <c r="Q6" s="9">
         <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>64.290000000000006</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.34</v>
-      </c>
-      <c r="I6" s="1">
-        <v>12.75</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="L6" s="1">
-        <v>12.23</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0.37999999999999551</v>
       </c>
       <c r="R6" s="10" t="s">
         <v>22</v>
@@ -896,50 +897,50 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
+        <v>93.17</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.22350024268961999</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.52</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1.73</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.32627751571640667</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.1721326167147906</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="N7" s="11">
+        <v>4.6907758181960364E-3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>5.7170000373757572E-2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.1162288486872491</v>
+      </c>
+      <c r="Q7" s="9">
         <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>93.17</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.22350024268961999</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1.35</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.64</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1.52</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="K7" s="11">
-        <v>1.73</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.32627751571640667</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0.1721326167147906</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="O7" s="11">
-        <v>4.6907758181960364E-3</v>
-      </c>
-      <c r="P7" s="11">
-        <v>5.7170000373757572E-2</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0.1162288486872491</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>22</v>
@@ -952,50 +953,50 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="1">
+        <v>90.83</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.2727011502870174E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.12578822096857531</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="K8" s="11">
+        <v>5.9486385758608457E-2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>5.8124679831144277E-2</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.063397878342134E-3</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2.2810304060459068E-2</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="Q8" s="9">
         <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>90.83</v>
-      </c>
-      <c r="E8" s="1">
-        <v>9.2727011502870174E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.12578822096857531</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.17</v>
-      </c>
-      <c r="L8" s="11">
-        <v>5.9486385758608457E-2</v>
-      </c>
-      <c r="M8" s="11">
-        <v>5.8124679831144277E-2</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0.13</v>
-      </c>
-      <c r="O8" s="11">
-        <v>1.063397878342134E-3</v>
-      </c>
-      <c r="P8" s="11">
-        <v>2.2810304060459068E-2</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0.11</v>
       </c>
       <c r="R8" s="10" t="s">
         <v>22</v>
@@ -1008,50 +1009,50 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
+        <v>51.12</v>
+      </c>
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="12">
-        <v>51.12</v>
-      </c>
       <c r="E9" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="G9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.89</v>
-      </c>
       <c r="H9" s="12">
+        <v>2.12</v>
+      </c>
+      <c r="I9" s="12">
         <v>0</v>
       </c>
-      <c r="I9" s="12">
-        <v>2.12</v>
-      </c>
       <c r="J9" s="12">
+        <v>9.01</v>
+      </c>
+      <c r="K9" s="12">
+        <v>21.24</v>
+      </c>
+      <c r="L9" s="12">
+        <v>11.34</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="O9" s="12">
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <v>9.01</v>
-      </c>
-      <c r="L9" s="12">
-        <v>21.24</v>
-      </c>
-      <c r="M9" s="12">
-        <v>11.34</v>
-      </c>
-      <c r="N9" s="12">
-        <v>1.46</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0.31</v>
-      </c>
       <c r="P9" s="12">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q9" s="9">
         <v>0</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>2.2599999999999998</v>
       </c>
       <c r="R9" s="10" t="s">
         <v>24</v>
